--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/77_Uşak_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/77_Uşak_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0341B94D-5A8C-499A-B269-90F43B2D4F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ED73AD0-F51C-4D2D-A87C-DFCD9E563593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="687" xr2:uid="{5AEC13F6-C14D-4D93-B65E-D4A0B16A2DF2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="687" xr2:uid="{292A54BC-31C7-41AC-89D2-8D914066F652}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -1021,15 +1021,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{FE1C7470-ED3A-48FD-8347-C48460861599}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{F0D67FC7-59A5-4ADF-BA6D-BBCF2907BE1D}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{CA9C5F61-3354-4D74-BD36-FD1ADC9CB870}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{FD2EE947-0894-48F1-82A7-4EADED4B8069}"/>
-    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{373A1C5B-0490-4392-BA96-101E588D72A4}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{9079C360-7338-4649-A910-5B7BBF55E0A5}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{289541E1-D49D-4492-8826-4EC891BE33EF}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{4F462820-84B9-4D93-AF02-D7E3D0B409DB}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{5DF386C7-C7E0-4268-9DED-435E8E39D382}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{274A26DE-DF2A-4527-8B9F-46D489D7B34F}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{B91A2F71-E5C6-4276-A8ED-90224F0F8EBF}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{DC0391DC-CA74-440A-AB46-61B5DD16010A}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{DAE183EE-D435-4CA3-8AE9-E3935741662E}"/>
+    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{03BB5454-580C-4318-9932-AC83CE10763A}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{E6B8016F-70DA-4F75-92F4-B389738D6717}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{68217771-9F88-4F52-8597-F6F40EDF2FA1}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{D86966A1-08F3-47E4-8B58-24BF5F55CCA0}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{F4AB2AF4-43C2-409A-B8B5-0642A5AB0743}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1399,7 +1399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533ADFE8-1672-4D09-B4DB-A447DB63656B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EF1ABF-4058-444A-A06F-12D5FFC6510B}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2671,17 +2671,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CDE8878D-4B61-4D8F-A11E-615A0381FA34}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5D230FB5-CE6C-491C-8BE6-6AB504FF556B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A2B91123-6ED2-4EA4-8765-BDF5490E4351}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{341B696F-194B-48A5-9733-17E2FD8C399D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{00F2F157-1739-4058-9B10-28D0C17B623E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0EB01867-C90C-4BBF-84F1-9455E257F78D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0DFD16EC-92F4-4AE6-B5C1-A87CC0494BCB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{78C1831C-C0C8-4FE9-AC79-E7D301525FDB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{25C88B6A-2B1F-4246-8958-97C99873C131}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BBE71BA2-499C-4A8C-8636-1E486937EDDF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4B302E50-7A41-4774-AEEB-828778791755}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D7AE2C5B-1DD1-4AD9-A193-C5082ECCF614}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6A8A3BDA-DB23-4264-89C2-C0434D340DC4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{80C81FBB-6E36-46FF-B3A3-FF163D25FD2C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C2EE5E54-40E0-4C3A-9241-413CCCE7FC5E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AFD4234A-91E1-4798-A904-53E075397D4B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BC3A81F7-841B-44F2-9C68-5440E2A3B9EE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{858CAF05-1BB8-48B4-A3B7-B3E5ED14B73B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DE6C42AA-076D-4452-97E8-F3E8F9F6C452}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B744CF7D-37E9-49C6-BD9F-80447581E28D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E0D0E8D2-5078-4B3A-AF59-EC78BBA61158}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F986AF3D-3BC8-4113-BEA7-5B4EB5385310}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2694,7 +2694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E4E17A-7487-4D51-A8E1-C5CEEE803666}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356C53D6-6E6C-446A-A866-5FD6DA0FE84B}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3953,17 +3953,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7C463805-6544-4D11-8B3B-8675CB98B26B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{25168873-058D-4AA1-8C1A-4BD03016EE02}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D47C37FF-0298-4B6A-B284-3F8825045C7A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4EDD6CEE-C7C3-4CE7-9457-C0A20118B23A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{703EF132-8C5D-47FA-AA6F-910F577C480B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DD75B014-A3C5-4FA9-8DCE-C3A03C47C3A8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C8A4879E-25B9-4007-8104-8A87246358FB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CFFCFACB-329E-4C71-82E4-12E1FC16A65B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{33907D50-A28A-476C-B5D0-5FB720C0B741}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DCD5971D-A063-494E-AEF9-F3257748574D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{124291E3-46C0-406F-B14F-793773CA2261}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{44D7F852-AE00-47D7-A629-305FCD6F03D1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9660E4FB-5195-411F-8B90-11551E344F18}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{00AF07CD-45E8-45DF-9598-FD1C8C133C55}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{57111949-741D-4C91-897A-64BE2E6B2004}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0033032E-FAA3-42B8-8C58-70004E4085C5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E86ECF96-5722-4C39-8395-6F7EE54D0143}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B7DB8771-24B7-40C5-AA73-F754DEC4CC3E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B5366005-DCAD-4114-A3B1-82C068024A6A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{59258D4C-4E96-4073-80B6-890F00D65AE8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{79739B81-116A-4B8C-8831-50FA15BAB6BA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F3DC99AB-4908-40E4-B8F9-E11B09FEF04E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3976,7 +3976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B6C393-4E64-4068-8CC1-20CDAA9529C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2168027B-5AD9-48B0-8F2D-CDA81F1D0B59}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5235,17 +5235,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{977CE96C-6F23-4D5F-9847-3397CA438313}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6EB3840B-E5BE-4A27-9C2D-D797A2F38B11}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{65130116-97B6-443B-B5F7-F396FEE50AEF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6BBA3A49-4696-470F-A14A-33D9EE286585}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3CBB9DBB-AC87-4720-80B3-5A3CA49C4025}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{46179BC4-B95F-47B0-86CE-C16BCF952BF2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E3C18492-3481-4F6D-A775-B324B70A5AB6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C7E25C33-09E6-4C4D-A329-DD964D7E4756}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A14C6A5A-F3D3-4108-A55D-301D3E0A880F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{389E0974-8062-43E1-86A8-18A7715A1824}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{51EF68B2-2ED6-42D2-80DA-95DAA0625237}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BB958D6E-5EEF-4E8D-804C-E07F38012666}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5AA5E7CC-1D21-48CB-B613-6B0AB0F6C475}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EB5AA51A-DD7B-4057-BF28-CA73316724AD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{826270FE-3177-4B4F-9880-C333769AB4C0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{15B4EC4D-5B4C-470D-AF22-CBD4A885537E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{229E5A3D-820F-48EA-8CF0-3853A5264022}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DDFFBC98-CD13-4239-AF47-75A3C63EEE20}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{51E6ACA6-1A97-4DFD-B08A-3628FB20B83D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{195BEAF1-4CB8-44B4-A479-3044E7FD5ECC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{CA8F1793-29F1-4CB7-948C-0670AF53879D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{54420CCB-BEAD-42A9-B29A-32D175215528}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5258,7 +5258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDBA6468-4CE2-4D6B-9BDD-29972BEE3C85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1589A62D-73E1-4375-9377-758700CD7F6E}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6519,17 +6519,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6EA34E13-1097-4195-9293-53F0773CCA4D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{86C04B5D-39A9-4527-8CAF-41D32961617A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{76BBE70F-3A81-493F-94AF-D5BD1E9CC158}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4D9A98D7-3BA5-405F-8FE6-232052A9155D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{62F4A999-E06A-45DC-97F5-C786003E0A41}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D6DF83A5-673B-42A0-9A77-20B19B01B125}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3693899E-7BD4-4E12-8F8E-0489D2CCD7DF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5B523558-A25B-45B0-BC27-BBD32B7BE575}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{EAADE936-2117-4E33-8A24-A662C1504EF9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{82F62C25-4C81-4491-AE8B-966DB2D0C642}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2EF6B442-E79C-4B17-8C57-A97FC601CC64}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{676B6F59-F7FC-44FB-823A-8C0BD20FBB7F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{72FE0A36-FA5A-48DB-BB4A-E829E20013A9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C8BD5AD4-DF24-4D33-9767-5D79B7CC19C8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DA658C6F-9FA8-440C-9A40-D5DF216689F1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1EF6E081-949A-4A72-A698-865852582374}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{796AC33E-F82B-461E-98B3-5FAB1E82F06A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3DDA56BA-2259-40FB-BA46-1E12C8618BDD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5F7201D2-DEB0-49F6-8570-E3041C305191}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1752D384-9326-4486-B4D9-D51CBA12A3F0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0C4B287B-AF1D-40FA-B23C-158CD5A6F48B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A4955797-0E5D-45A0-8E79-BBF17810D1F6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6542,7 +6542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17805A1-A78D-4CEC-811C-E840C87EC9EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A576B57-B8CC-4599-8892-D1444B4FF5ED}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7809,17 +7809,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C357BF2D-00CC-49ED-A324-A131A8CE5E15}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0BB17FAC-930E-42E6-88CC-9F1E017A8192}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6D21FFD4-CF6B-411B-81FE-77FA607038E7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{16E472B1-B2E9-4BCE-B7DD-F60553F16F67}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{449639A3-0C60-4E1C-99E8-A82F593498CA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{114E53EB-70EE-49B7-9DDF-0B434AF3DCA1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6543350A-8702-4841-9432-4D9C7FC36DB3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{653D89E7-ADEC-4CE5-811C-71FA572A2401}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{285330D3-1259-4C42-B89F-79D3F6E75969}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3277B114-8279-4054-945B-5DC4150D1DE9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FE2B6957-103F-4A68-9AE8-182240F1F97B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{579AA1A7-4141-4D27-A97D-281DA7B07088}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BC11D1B9-D3C0-4658-BD3F-7882A788B342}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D962B9D7-6398-4424-A5B4-5BA95E8EB5E9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A143A889-ED5E-4B7C-B0B5-EDF36216C42A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B0488B1C-A4D4-4478-8507-7F9EA0EDC31C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AC624680-6F29-4529-A0F5-CC45C68E0EA1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0A8EA9C9-1F31-47CA-BF5D-9A4AD5CB2AB9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BED28522-73F6-46BB-B0DE-CF6E3BC67996}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D1AD2958-1BAB-4A3B-85F3-C8FEC78AC594}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E4C83204-FE87-4461-975D-418629C09883}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BE11D036-CCF2-4A88-8A9F-885C34990CD1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7832,7 +7832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDED9AB7-437A-42E4-AE41-B5B1AF4ADC71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69DF4544-1658-499B-81A1-BD84FC2DCB5C}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9099,17 +9099,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{61BA4AAE-92BF-470B-B2DC-6B19F30B1E48}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BB955CD4-E580-4007-A976-8D9422CA599B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A3CC3AF7-C88C-4285-A398-A3DB1E35F690}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BD11B412-83A8-4035-8678-B250C0895F64}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D53CA738-0E6E-4B89-BEA5-2126EFEB6461}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EFCD9A24-BCDE-4F98-A3D1-606BE14CEA4F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BC968059-91FE-48F0-B6D3-8C8279D80E8F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3017FE54-61D1-42FD-BF59-49F6978876A6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D8763FF9-50BA-4FF4-9DEA-4B2AE922B515}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9C3E83AE-1F7B-4738-973D-EBDF50E7959E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{168FB299-B1BF-4C59-9738-B5D68865DB60}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6CC23585-3DD2-42DC-8CBF-4DB09A82263A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{089DF3DA-538F-434C-B53C-D2906DBA1A03}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2F469469-70F1-443A-9BB4-B120AA116291}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F97D2B9E-09A3-4A3E-8DCF-D916C65B92A4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{937BE6A5-CA3F-45F5-9E50-1CB57FDD7873}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4D5F6866-1B2C-45C8-82A7-5D1FD88CD3F6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{99861936-2CE5-4717-89FE-1BE616F23E9B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D188EA08-A3EB-427F-BD80-AE62F7CE9196}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F4DD8E0F-5383-4C2E-A184-120A763202BB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7F753797-C642-4BB5-B8D3-D8F942F8C61E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B84BFC3D-A7CE-4A66-AA4F-0ACC37FB2481}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9122,7 +9122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A711247D-BA01-4497-A5CB-C4420AE3FBE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3500D48-E5F7-4349-A21A-66D6CE317ACB}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10389,17 +10389,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{88FE8D27-4500-464D-ACCC-A826F5A8054A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AEE535FE-5FB2-4CA0-A429-CB3BAF27A422}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C10E8AAB-11E6-4FB6-B192-0491C40DEBB2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B0F933A7-4C29-4CB2-A262-E2072C716657}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{19BAEAF8-BD59-4B75-BDD5-3E7A7CB64741}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{43EEB5DE-F68B-44CB-B593-9753352CFA29}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E33925D2-B2D4-4BAA-BFF4-8A71EABC6C1C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3381D234-23D2-485A-9398-C961CBB32EF7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E5E5B3A1-842A-4224-AE22-06598AC051EF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1D49B073-BC3E-4014-B279-8BB904D0D455}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7A73C713-0D06-4A68-B736-A9D35FC97351}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B964A028-F93E-4D05-9FF9-34267B4A7867}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{29013FBC-DFF3-4294-983E-51552F3AB621}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5BC16F85-3A1F-4C65-92B4-E8146FE8619D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B81C1802-097B-4138-B080-B62B50AE4381}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{53DFADB3-61F1-40AF-B364-5C51FF6178E7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{66FDC1AB-8C40-4657-A2F1-8E98AB26AC9B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DE37A42D-9D91-4F06-B854-F67055543A08}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E118CB56-7420-46C1-8369-7CA1636247FA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3BB22A64-F01C-4637-9398-81935D9B845F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{6F934FB3-888B-47A0-91BC-CFE8E2C855E8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{23F48380-4810-4240-9AC7-34FE272FB91C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10412,7 +10412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC966ADE-A276-4DC0-AFF1-435D55088824}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62322942-6700-4802-8767-EC6B010DC689}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11679,17 +11679,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DC27ED4A-AC44-4A41-A595-3DF9389E27E1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1F349D7F-5676-47C7-9031-A7CA2AA66323}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{09653F4B-4F72-443F-8BF3-98F99D6D8A14}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{09B0C1F5-C4F6-4E96-A68C-EE3647C1303B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0C49680A-E884-4C28-A1C5-BAD7B4387B5B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3984DFB2-A0BA-4A5D-9D66-CF7EFB29A215}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B45D9E57-01AE-460A-8EF3-CC37D13DF12F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3F5C2A3D-4776-4EDA-A54E-11C6C5503A5F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DFE24EF8-E1F3-4C70-A517-55C6EA02F807}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{04D46808-FCE2-4459-9450-C9DF4FE81A51}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{715AA87D-A41F-4547-9E0B-237350ED6D66}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{290301BB-5518-48E6-A852-0FCF4422BDF9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{743559B2-8FE5-4D82-994F-403F2648669B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{99360162-C3DD-4F64-9AFD-EBFC21ABE021}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{30C3870E-7871-4F40-8786-B3E9E082DE1F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0714B085-ED5F-4F5D-B6CA-1C7EA03CDD99}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{901CF470-B3FC-4DC9-A96B-BD7FBA18842D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1B84781C-A5C7-47EE-9886-1F034EB87361}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9A16B58F-003E-4CAF-98E8-2FA3BCEEA7D5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C65E7B66-C290-400A-8C0F-8722F29E006C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{489B620D-D5E0-485B-A196-1CA9BBC31D48}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{94D393FB-82D3-4ACB-95E2-CBC5A936729C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11702,7 +11702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B0C4EC-2D6C-4BDC-B71E-666DF9330E49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEEF54B9-1127-4E39-A36F-F02FE633D02E}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12969,17 +12969,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{40E7597E-7087-4161-9966-2FA4B9305D37}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{606677B9-C123-4732-BD96-849C8775F91E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F65F88FE-72B3-4B05-B52F-7DF579AEA216}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2DD84CAC-31B2-4604-92AD-0AD5AA537E77}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{298F73E0-CEAF-4432-A5C7-72FCACA837C7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{42320E9F-4D15-4B04-B4CD-1A8E4C47F79A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8911244E-5F89-4868-A942-77BAD68E463E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A234071E-E3B9-4268-B6E4-3DB498121C49}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{160F5192-33B4-4B81-96EC-8FF09AEC4CF7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{B44BBCE4-3221-4BFB-A27E-B54E7027F867}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1AB45266-D352-4F78-A704-76D284AFC155}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B84475F9-F700-4BF2-BAB7-E0D2A8CD7588}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D3A15FBF-13F6-4AAD-AD6F-B5D9FE1774DD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A4A8A675-D3BA-4B68-A186-8183DED35AB6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EE370077-4F0C-4284-B93A-6C2B485434B4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FDB8BE61-EA8D-4A8F-B5DA-066AC82B77BA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{232E3BA5-81F0-4EBF-A591-6D74FE46816B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D546679A-10F7-42C9-AF21-A81D6788465A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CD22542E-324A-4480-884B-4BA8F2376A3E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0D2BA147-FB80-41BD-92AE-3FFD7231E27A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{355D9515-993C-4ABA-9624-F7E92587EE39}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{182ADC50-FA5F-45FB-BE2E-7F4E1496A632}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12992,7 +12992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75994487-96AA-4552-BE64-4F0176D890DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9395727-BDAF-4E49-8407-241D4CFB08DF}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14259,17 +14259,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{19169ADE-08F4-4232-AF02-45C9D07FB31A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{56B2FD42-36CA-4CE4-AC24-53CAD1DAE4E0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3BA476F3-BC61-4021-8E7B-54D0173D90B5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{40146614-13CA-408E-8BF3-DF288BDF4149}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{047B5A29-1E6C-4927-8AA1-96B8C615FCA3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{79AA7E5E-0DED-49A7-BF95-38AFC981C063}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B31A5B27-8F40-47A4-828A-993589232311}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9342B18A-712E-4887-B5E3-74D894658195}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{2E6C94E9-2812-42BA-B35D-D69AE09EAC75}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{78C48CA6-44A4-4AAF-8F07-C76CFECBBDA7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4A91E07F-6958-414A-912A-4D1E93B0AE8D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{69E73E6E-E87B-4AC5-969B-181E8CEAE031}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{01D531BA-42DD-46D2-9DA2-A7E70C6896D5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1448041F-3462-438D-A486-E50A5F903B23}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{212BF446-20CD-4CC0-8980-C18BD9AF964A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FC45508E-ACBC-4FF4-9EAC-86F2C0FBC798}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0D5D145D-5B90-4C58-93A1-8649E1D6F522}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D0C63476-4A45-4D74-939B-1D830EF17EBD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E68195CE-1284-4D07-846B-A3F9F73EE6B1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DC7BB40D-7694-445E-81C2-646BC373E692}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{68A7C280-EB6E-4F17-9C81-0D167BB76078}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7174ECD3-C256-416B-ADB4-D3003AF175B3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14282,7 +14282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C63A361-6855-48B7-90A7-DE3CDE6EA090}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED9CA94-ADEF-481A-BF0C-851065CA3AB0}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15545,17 +15545,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E650CE82-3905-45A5-8713-7373F4A7E512}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{50DFFF7C-9D1F-4B82-92DF-8C3054742B03}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F8738642-F175-47C8-AB84-81340FD0343F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3F880BB1-3C96-4DD8-9D44-288D6029C1C3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9143A865-A901-4E0C-B51A-18A6E5C8767F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C330A034-59C2-4B41-9BCD-2C79B1CCFDB6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3686B255-67BD-4B1B-AF55-B67F6DF7DBBB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{561B9913-F7A9-4A9D-8D32-2882886DD0A4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DD10F526-1BCB-4770-A924-137142F5F5A5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{961C5A15-2E6C-4965-BF19-FFB48A13FCD0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4F11C667-1198-4B4D-A8F4-DF992E2DF81C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{726AC954-6C9B-495F-8EA6-5F3065F9279A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0ADA94DE-F88D-4A2C-8809-1BCC7C28EA2E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EB02A507-703F-4B0D-B81A-710FFF2A42E7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{03CC9E30-079D-4A0C-BCE0-A08AA9559CF7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{171368E3-0F48-4C57-8499-9AB0AC954AFF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8B39978E-DD2B-48D3-81A4-77CADD2A9362}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E2808A2F-90D0-4721-A661-98F3AE1E497B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B9C7FD0B-291B-4E4B-A644-82A7E7C934B5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3384CF0F-2D37-4DE0-B97C-018CBAF3DCAC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{882A7308-DCC3-4655-A8E5-438F349527CA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E5309A21-EC8C-4C22-9EE1-7AE66AC4297C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15568,7 +15568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD7BD8AE-614A-47A1-9126-93B3C718A328}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B517B9-3124-40F4-A3F6-E56F62439B7F}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -16831,17 +16831,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{335F29B8-676E-4F05-AF5B-068156D8FA19}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EAA055E3-2B98-4391-8289-C11A68CCA04D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DC99EAF9-3A51-406B-A897-D5E7FD2BCA53}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AD0FBE25-730E-43C1-B94A-642FD3528E37}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5D0AFEDF-6AEB-41D1-92C0-E243DB539F12}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{79410D8B-4E94-44B3-AFE6-90458725ECB9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{282A9DE3-06D4-4A54-A3F7-22C5BED0F83D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EBDB7BCB-9608-4916-85B2-8233199ED074}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{31306C14-DF7F-4022-96C9-D138AEB46492}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D880F14B-FB24-4CFE-BF19-585BB5EF3A00}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{678FF43E-946F-4BDF-8468-5A0610DEEF23}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9034B14D-0142-49B9-84D4-202885828BAB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2EABC9BC-F050-4793-92D8-0A8B6006F533}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7548C5FF-505F-4AC6-8C44-B01A1FEF7451}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{606B5750-D26D-43D2-9FDF-3CEA58A903BF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7B806C45-8123-4DE2-93B6-BA78020034E5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7973CD20-EBF2-40A4-9810-DE677D200DD8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5490AFA6-668C-483D-84CD-C2C879EFDC04}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{33554479-477F-4F8F-A63F-91C1EF1ED578}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{8E933DA1-F97D-4661-9FF4-1FC6ECF93D1C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{49054A1B-A684-46CB-9C42-D7DD37593374}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{49815149-FC41-449E-8358-B8AB949F2DA8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
